--- a/Supplemental Tables.xlsx
+++ b/Supplemental Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinsparks/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinsparks/Dropbox/UD/Writing/Reneau2020/Reneau_et_al_2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95DFC70-429B-8546-8183-8B3E1ACB65C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7068455E-8BEB-1742-AB30-A2EB775267EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31320" yWindow="1260" windowWidth="24900" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28780" yWindow="2280" windowWidth="24900" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table S2" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
   <si>
     <t>165_1</t>
   </si>
@@ -171,12 +171,6 @@
     <t>Selection.cycle</t>
   </si>
   <si>
-    <t>EI</t>
-  </si>
-  <si>
-    <t>EI.Ratio</t>
-  </si>
-  <si>
     <t>DTA</t>
   </si>
   <si>
@@ -211,6 +205,15 @@
   </si>
   <si>
     <t>Table S2. Trait correlation between flexural rigidity of the subset of 26 accessions from the Tusón population and various plant development traits from Teixeira et al. 2015.</t>
+  </si>
+  <si>
+    <t>Force-Deflectoin</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Force-Deflection</t>
   </si>
 </sst>
 </file>
@@ -1139,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACD8C0D-B769-4443-B7C7-B5F621CE1E50}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1160,7 +1163,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -1169,34 +1172,34 @@
         <v>45</v>
       </c>
       <c r="C3" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="F3" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="G3" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="H3" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="66" t="s">
+      <c r="I3" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="66" t="s">
+      <c r="J3" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="66" t="s">
+      <c r="K3" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="66" t="s">
+      <c r="L3" s="71" t="s">
         <v>53</v>
-      </c>
-      <c r="K3" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="71" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -1237,7 +1240,7 @@
     </row>
     <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="69" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B5" s="24">
         <v>3.1300000000000001E-2</v>
@@ -1273,7 +1276,7 @@
     </row>
     <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="69" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B6" s="33">
         <v>0.96560000000000001</v>
@@ -1309,7 +1312,7 @@
     </row>
     <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="69" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" s="40" t="s">
         <v>44</v>
@@ -1345,7 +1348,7 @@
     </row>
     <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="69" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>44</v>
@@ -1381,7 +1384,7 @@
     </row>
     <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="69" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" s="40">
         <v>2.0000000000000001E-4</v>
@@ -1417,7 +1420,7 @@
     </row>
     <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" s="40" t="s">
         <v>44</v>
@@ -1453,7 +1456,7 @@
     </row>
     <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="69" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" s="40" t="s">
         <v>44</v>
@@ -1489,7 +1492,7 @@
     </row>
     <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="69" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" s="33">
         <v>0.48920000000000002</v>
@@ -1525,7 +1528,7 @@
     </row>
     <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="69" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" s="33">
         <v>0.2782</v>
@@ -1561,7 +1564,7 @@
     </row>
     <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" s="67">
         <v>0.60670000000000002</v>
@@ -1597,7 +1600,7 @@
     </row>
     <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="17" x14ac:dyDescent="0.2">
@@ -1722,7 +1725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4D4BD3-4E77-5040-92C1-1BAD1DA4D243}">
   <dimension ref="A1:XFD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28:N33"/>
     </sheetView>
   </sheetViews>
@@ -1739,7 +1742,7 @@
   <sheetData>
     <row r="1" spans="1:16384" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -35941,7 +35944,7 @@
     </row>
     <row r="35" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="82" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
